--- a/pengxiang-edu-vue/src/docs/字段核对.xlsx
+++ b/pengxiang-edu-vue/src/docs/字段核对.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022_ChenEnlai\duYan\lab_Project\pengxiang\pengxiang-edu-vue\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DC43BC-D1A4-4D6A-A0E2-EB82DE091623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E3F8F-0DB8-463F-9D56-ED89A80E6D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="175">
   <si>
     <t>学生基础信息</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>第一段实习</t>
-  </si>
-  <si>
-    <t>必考证书（多选）</t>
   </si>
   <si>
     <t>出生日期</t>
@@ -161,9 +158,6 @@
     <t>招生老师</t>
   </si>
   <si>
-    <t>学籍变更时间</t>
-  </si>
-  <si>
     <t>就业岗位</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t>招生老师电话</t>
   </si>
   <si>
-    <t>学籍变更原因</t>
-  </si>
-  <si>
     <t>试用期薪酬</t>
   </si>
   <si>
@@ -306,16 +297,10 @@
     <t>带队教师电话</t>
   </si>
   <si>
-    <t>QQ/</t>
-  </si>
-  <si>
     <t>是否在岗</t>
   </si>
   <si>
     <t>第二段实习</t>
-  </si>
-  <si>
-    <t>微信号</t>
   </si>
   <si>
     <t>实习类别</t>
@@ -554,13 +539,69 @@
   </si>
   <si>
     <t>缴费日期</t>
+  </si>
+  <si>
+    <t>必考证书（多选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍字段表格多于之前给的（多选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实缴、应缴、减免之间的关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费：我们提供一个是否欠费的字段，是否合适。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任所属部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>户口所在地-省</t>
+  </si>
+  <si>
+    <t>户口所在地-市</t>
+  </si>
+  <si>
+    <t>户口所在地-县</t>
+  </si>
+  <si>
+    <t>欠费变色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应缴 = 实缴+减免</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多证书</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,8 +643,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,18 +705,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -730,11 +781,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,9 +828,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -799,42 +858,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,6 +898,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,17 +1212,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1146,9 +1232,11 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1156,9 +1244,11 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1166,9 +1256,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1176,9 +1268,11 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1186,9 +1280,11 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1196,9 +1292,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1206,9 +1304,11 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1216,12 +1316,12 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>1</v>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -1241,13 +1341,16 @@
       <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>9</v>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
@@ -1267,18 +1370,24 @@
       <c r="H10" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>11</v>
+      <c r="B11" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1287,210 +1396,225 @@
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>15</v>
+      <c r="G11" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="D14" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="D16" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="F16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="G16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>52</v>
+      <c r="I16" s="45" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="D17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="F17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="G17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="H17" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="E18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="G18" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="E19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="G19" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>9</v>
@@ -1498,291 +1622,274 @@
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="G20" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="2" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F22" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="G22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="14" t="s">
+      <c r="F23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="G23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="G24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="F25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="8" t="s">
-        <v>52</v>
+      <c r="A26" s="42" t="s">
+        <v>169</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>70</v>
+      <c r="E26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="14" t="s">
-        <v>89</v>
+      <c r="E27" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="14" t="s">
-        <v>92</v>
+      <c r="E28" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="38"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="14" t="s">
-        <v>33</v>
+      <c r="E29" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="39"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="14" t="s">
-        <v>41</v>
+      <c r="E30" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="39"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="39"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="B33" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="47" t="s">
+        <v>174</v>
+      </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>97</v>
+      <c r="B35" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="39"/>
+        <v>93</v>
+      </c>
+      <c r="F35" s="34"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
@@ -1792,49 +1899,49 @@
         <v>12</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="34"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="39"/>
+        <v>97</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="34"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1843,16 +1950,16 @@
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1861,16 +1968,16 @@
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1879,16 +1986,16 @@
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>89</v>
+        <v>105</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1897,34 +2004,34 @@
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>92</v>
+        <v>107</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1933,16 +2040,16 @@
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>41</v>
+        <v>112</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1951,16 +2058,16 @@
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1968,17 +2075,17 @@
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="31" t="s">
-        <v>120</v>
+      <c r="B46" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1986,17 +2093,17 @@
     </row>
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="14" t="s">
-        <v>123</v>
+      <c r="B47" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2005,16 +2112,16 @@
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>68</v>
+        <v>123</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2023,13 +2130,13 @@
     <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="38"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2037,13 +2144,13 @@
     <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="39"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2051,13 +2158,13 @@
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="39"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2065,11 +2172,11 @@
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="39"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2077,7 +2184,7 @@
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2089,7 +2196,7 @@
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2101,7 +2208,7 @@
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2113,7 +2220,7 @@
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2125,7 +2232,7 @@
     <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2137,7 +2244,7 @@
     <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2148,8 +2255,8 @@
     </row>
     <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="12" t="s">
-        <v>142</v>
+      <c r="B59" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2160,8 +2267,8 @@
     </row>
     <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="12" t="s">
-        <v>143</v>
+      <c r="B60" s="37" t="s">
+        <v>138</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2172,8 +2279,8 @@
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="12" t="s">
-        <v>144</v>
+      <c r="B61" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2184,11 +2291,11 @@
     </row>
     <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>146</v>
+      <c r="B62" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>141</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2198,10 +2305,10 @@
     </row>
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="35"/>
+      <c r="B63" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="30"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2210,10 +2317,10 @@
     </row>
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="35"/>
+      <c r="B64" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="30"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2223,9 +2330,9 @@
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="C65" s="30"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2235,9 +2342,9 @@
     <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="35"/>
+        <v>145</v>
+      </c>
+      <c r="C66" s="30"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2247,7 +2354,7 @@
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2258,8 +2365,8 @@
     </row>
     <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="14" t="s">
-        <v>152</v>
+      <c r="B68" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2270,8 +2377,8 @@
     </row>
     <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="14" t="s">
-        <v>153</v>
+      <c r="B69" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2282,8 +2389,8 @@
     </row>
     <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="14" t="s">
-        <v>154</v>
+      <c r="B70" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2294,8 +2401,8 @@
     </row>
     <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="14" t="s">
-        <v>155</v>
+      <c r="B71" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2306,8 +2413,8 @@
     </row>
     <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="14" t="s">
-        <v>156</v>
+      <c r="B72" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2318,8 +2425,8 @@
     </row>
     <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="14" t="s">
-        <v>157</v>
+      <c r="B73" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2330,8 +2437,8 @@
     </row>
     <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="14" t="s">
-        <v>158</v>
+      <c r="B74" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2342,8 +2449,8 @@
     </row>
     <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="14" t="s">
-        <v>159</v>
+      <c r="B75" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2354,8 +2461,8 @@
     </row>
     <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="14" t="s">
-        <v>160</v>
+      <c r="B76" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2366,8 +2473,8 @@
     </row>
     <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="14" t="s">
-        <v>161</v>
+      <c r="B77" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2378,8 +2485,8 @@
     </row>
     <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="36" t="s">
-        <v>162</v>
+      <c r="B78" s="31" t="s">
+        <v>157</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2390,8 +2497,8 @@
     </row>
     <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="31" t="s">
-        <v>163</v>
+      <c r="B79" s="26" t="s">
+        <v>158</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2403,7 +2510,7 @@
     <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2415,7 +2522,7 @@
     <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2427,7 +2534,7 @@
     <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2439,7 +2546,7 @@
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2451,7 +2558,7 @@
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2463,7 +2570,7 @@
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2475,7 +2582,7 @@
     <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2487,7 +2594,7 @@
     <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2499,7 +2606,7 @@
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2511,7 +2618,7 @@
     <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2523,33 +2630,33 @@
     <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="37"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
+        <v>136</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
-      <c r="B92" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="37"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="32"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2558,8 +2665,8 @@
     </row>
     <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="12" t="s">
-        <v>143</v>
+      <c r="B93" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2570,8 +2677,8 @@
     </row>
     <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="12" t="s">
-        <v>144</v>
+      <c r="B94" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2582,8 +2689,8 @@
     </row>
     <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="33" t="s">
-        <v>145</v>
+      <c r="B95" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2594,32 +2701,32 @@
     </row>
     <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="33" t="s">
-        <v>147</v>
+      <c r="B96" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="37"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="33" t="s">
-        <v>148</v>
+      <c r="B97" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="37"/>
+      <c r="G97" s="32"/>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2631,7 +2738,7 @@
     <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2643,7 +2750,7 @@
     <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2654,8 +2761,8 @@
     </row>
     <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="14" t="s">
-        <v>152</v>
+      <c r="B101" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2666,32 +2773,32 @@
     </row>
     <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="14" t="s">
-        <v>153</v>
+      <c r="B102" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="37"/>
+      <c r="H102" s="32"/>
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="14" t="s">
-        <v>154</v>
+      <c r="B103" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="37"/>
+      <c r="H103" s="32"/>
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="14" t="s">
-        <v>155</v>
+      <c r="B104" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2702,8 +2809,8 @@
     </row>
     <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="14" t="s">
-        <v>156</v>
+      <c r="B105" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2714,8 +2821,8 @@
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="14" t="s">
-        <v>157</v>
+      <c r="B106" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2726,8 +2833,8 @@
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="14" t="s">
-        <v>158</v>
+      <c r="B107" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2738,8 +2845,8 @@
     </row>
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="14" t="s">
-        <v>159</v>
+      <c r="B108" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2750,8 +2857,8 @@
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="14" t="s">
-        <v>160</v>
+      <c r="B109" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2762,8 +2869,8 @@
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="14" t="s">
-        <v>161</v>
+      <c r="B110" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2774,8 +2881,8 @@
     </row>
     <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="36" t="s">
-        <v>162</v>
+      <c r="B111" s="31" t="s">
+        <v>157</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" s="1"/>
@@ -2864,13 +2971,12 @@
       <c r="H124" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B29:B32"/>
+  <mergeCells count="2">
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="F34:F37"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pengxiang-edu-vue/src/docs/字段核对.xlsx
+++ b/pengxiang-edu-vue/src/docs/字段核对.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022_ChenEnlai\duYan\lab_Project\pengxiang\pengxiang-edu-vue\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E3F8F-0DB8-463F-9D56-ED89A80E6D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9532DB79-8B7E-43C2-87A1-D097FC181DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,6 +131,426 @@
   </si>
   <si>
     <t>籍贯</t>
+  </si>
+  <si>
+    <t>招生老师</t>
+  </si>
+  <si>
+    <t>就业岗位</t>
+  </si>
+  <si>
+    <t>实习岗位</t>
+  </si>
+  <si>
+    <t>考证时间</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
+    <t>招生老师部门</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>试用期限</t>
+  </si>
+  <si>
+    <t>实习离校日期</t>
+  </si>
+  <si>
+    <t>考证状态</t>
+  </si>
+  <si>
+    <t>班主任</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>招生季（春秋）</t>
+  </si>
+  <si>
+    <t>招生老师电话</t>
+  </si>
+  <si>
+    <t>试用期薪酬</t>
+  </si>
+  <si>
+    <t>预计实习结束日期</t>
+  </si>
+  <si>
+    <t>发证日期</t>
+  </si>
+  <si>
+    <t>班主任电话</t>
+  </si>
+  <si>
+    <t>入学前技能水平</t>
+  </si>
+  <si>
+    <t>入学日期</t>
+  </si>
+  <si>
+    <t>转正薪酬</t>
+  </si>
+  <si>
+    <t>实际实习结束日期</t>
+  </si>
+  <si>
+    <t>错补证信息（无，已补发/未补发）</t>
+  </si>
+  <si>
+    <t>入学学历</t>
+  </si>
+  <si>
+    <t>注册学籍日期</t>
+  </si>
+  <si>
+    <t>岗位负责人</t>
+  </si>
+  <si>
+    <t>学生实习鉴定结果</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>毕业学校</t>
+  </si>
+  <si>
+    <t>是否提前入学（怎么处理？）</t>
+  </si>
+  <si>
+    <t>岗位负责人电话</t>
+  </si>
+  <si>
+    <t>是否对岗位满意</t>
+  </si>
+  <si>
+    <t>证书二</t>
+  </si>
+  <si>
+    <t>户口性质</t>
+  </si>
+  <si>
+    <t>第一次就业回访</t>
+  </si>
+  <si>
+    <t>带队教师</t>
+  </si>
+  <si>
+    <t>电子邮件</t>
+  </si>
+  <si>
+    <t>回访日期</t>
+  </si>
+  <si>
+    <t>带队教师电话</t>
+  </si>
+  <si>
+    <t>是否在岗</t>
+  </si>
+  <si>
+    <t>第二段实习</t>
+  </si>
+  <si>
+    <t>实习类别</t>
+  </si>
+  <si>
+    <t>学生就业工作情况</t>
+  </si>
+  <si>
+    <t>离职原因</t>
+  </si>
+  <si>
+    <t>是否需要二次就业</t>
+  </si>
+  <si>
+    <t>证书三</t>
+  </si>
+  <si>
+    <t>提供一个学籍记录的案例</t>
+  </si>
+  <si>
+    <t>二次就业分配时间</t>
+  </si>
+  <si>
+    <t>财务信息</t>
+  </si>
+  <si>
+    <t>学杂费收支信息</t>
+  </si>
+  <si>
+    <t>学生退费信息</t>
+  </si>
+  <si>
+    <t>学生欠费信息</t>
+  </si>
+  <si>
+    <t>学生基本信息</t>
+  </si>
+  <si>
+    <t>第二次就业回访</t>
+  </si>
+  <si>
+    <t>退费时间</t>
+  </si>
+  <si>
+    <t>第一学年欠费费信息</t>
+  </si>
+  <si>
+    <t>退费学年</t>
+  </si>
+  <si>
+    <t>欠费学年度</t>
+  </si>
+  <si>
+    <t>退费金额</t>
+  </si>
+  <si>
+    <t>欠培训费</t>
+  </si>
+  <si>
+    <t>退培训费</t>
+  </si>
+  <si>
+    <t>欠服装费</t>
+  </si>
+  <si>
+    <t>退服装费</t>
+  </si>
+  <si>
+    <t>欠教材费</t>
+  </si>
+  <si>
+    <t>退教材费</t>
+  </si>
+  <si>
+    <t>欠住宿费</t>
+  </si>
+  <si>
+    <t>退住宿费</t>
+  </si>
+  <si>
+    <t>欠被褥费</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>退被褥费</t>
+  </si>
+  <si>
+    <t>欠保险费</t>
+  </si>
+  <si>
+    <t>退保险费</t>
+  </si>
+  <si>
+    <t>欠公物押金</t>
+  </si>
+  <si>
+    <t>退公物押金</t>
+  </si>
+  <si>
+    <t>欠证书费</t>
+  </si>
+  <si>
+    <t>第一学年学杂费信息</t>
+  </si>
+  <si>
+    <t>退证书费</t>
+  </si>
+  <si>
+    <t>欠国防教育费</t>
+  </si>
+  <si>
+    <t>缴费日期(最后一次缴费日期）</t>
+  </si>
+  <si>
+    <t>退国防教育费</t>
+  </si>
+  <si>
+    <t>欠体检费</t>
+  </si>
+  <si>
+    <t>缴费学年</t>
+  </si>
+  <si>
+    <t>退体检费</t>
+  </si>
+  <si>
+    <t>欠费合计</t>
+  </si>
+  <si>
+    <t>实缴培训费</t>
+  </si>
+  <si>
+    <t>退费账户</t>
+  </si>
+  <si>
+    <t>实缴服装费</t>
+  </si>
+  <si>
+    <t>退费账号</t>
+  </si>
+  <si>
+    <t>实缴教材费</t>
+  </si>
+  <si>
+    <t>退费开户行</t>
+  </si>
+  <si>
+    <t>实缴住宿费</t>
+  </si>
+  <si>
+    <t>实缴被褥费</t>
+  </si>
+  <si>
+    <t>实缴保险费</t>
+  </si>
+  <si>
+    <t>实缴公物押金</t>
+  </si>
+  <si>
+    <t>实缴证书费</t>
+  </si>
+  <si>
+    <t>实缴国防教育费</t>
+  </si>
+  <si>
+    <t>实缴体检费</t>
+  </si>
+  <si>
+    <t>减免类型(非贫困生、贫困生)</t>
+  </si>
+  <si>
+    <t>减免金额</t>
+  </si>
+  <si>
+    <t>减免备注</t>
+  </si>
+  <si>
+    <t>返费时间</t>
+  </si>
+  <si>
+    <t>返费和退费的关系
+，返费和实缴应缴的关系，为什么要在记录里添加返费</t>
+  </si>
+  <si>
+    <t>应返费总额</t>
+  </si>
+  <si>
+    <t>返费金额</t>
+  </si>
+  <si>
+    <t>返费账户</t>
+  </si>
+  <si>
+    <t>返费账号</t>
+  </si>
+  <si>
+    <t>返费开户行</t>
+  </si>
+  <si>
+    <t>应缴培训费</t>
+  </si>
+  <si>
+    <t>应缴服装费</t>
+  </si>
+  <si>
+    <t>应缴教材费</t>
+  </si>
+  <si>
+    <t>应缴住宿费</t>
+  </si>
+  <si>
+    <t>应缴被褥费</t>
+  </si>
+  <si>
+    <t>应缴保险费</t>
+  </si>
+  <si>
+    <t>应缴公物押金</t>
+  </si>
+  <si>
+    <t>应缴证书费</t>
+  </si>
+  <si>
+    <t>应缴国防教育费</t>
+  </si>
+  <si>
+    <t>应缴体检费</t>
+  </si>
+  <si>
+    <t>是否欠费</t>
+  </si>
+  <si>
+    <t>第二学年学杂费信息</t>
+  </si>
+  <si>
+    <t>缴费日期</t>
+  </si>
+  <si>
+    <t>必考证书（多选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学籍字段表格多于之前给的（多选）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>实缴、应缴、减免之间的关系</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费：我们提供一个是否欠费的字段，是否合适。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任所属部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>户口所在地-省</t>
+  </si>
+  <si>
+    <t>户口所在地-市</t>
+  </si>
+  <si>
+    <t>户口所在地-县</t>
+  </si>
+  <si>
+    <t>欠费变色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应缴 = 实缴+减免</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多证书</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -153,24 +573,7 @@
       </rPr>
       <t>(在校、实习、就业、请假、休学、退学、毕业)</t>
     </r>
-  </si>
-  <si>
-    <t>招生老师</t>
-  </si>
-  <si>
-    <t>就业岗位</t>
-  </si>
-  <si>
-    <t>实习岗位</t>
-  </si>
-  <si>
-    <t>考证时间</t>
-  </si>
-  <si>
-    <t>班级</t>
-  </si>
-  <si>
-    <t>政治面貌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -193,407 +596,6 @@
       </rPr>
       <t>(在册在籍、在册不在籍、在籍退学、非在册非在籍、提前入学）</t>
     </r>
-  </si>
-  <si>
-    <t>招生老师部门</t>
-  </si>
-  <si>
-    <t>结束日期</t>
-  </si>
-  <si>
-    <t>试用期限</t>
-  </si>
-  <si>
-    <t>实习离校日期</t>
-  </si>
-  <si>
-    <t>考证状态</t>
-  </si>
-  <si>
-    <t>班主任</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>招生季（春秋）</t>
-  </si>
-  <si>
-    <t>招生老师电话</t>
-  </si>
-  <si>
-    <t>试用期薪酬</t>
-  </si>
-  <si>
-    <t>预计实习结束日期</t>
-  </si>
-  <si>
-    <t>发证日期</t>
-  </si>
-  <si>
-    <t>班主任电话</t>
-  </si>
-  <si>
-    <t>入学前技能水平</t>
-  </si>
-  <si>
-    <t>入学日期</t>
-  </si>
-  <si>
-    <t>转正薪酬</t>
-  </si>
-  <si>
-    <t>实际实习结束日期</t>
-  </si>
-  <si>
-    <t>错补证信息（无，已补发/未补发）</t>
-  </si>
-  <si>
-    <t>入学学历</t>
-  </si>
-  <si>
-    <t>注册学籍日期</t>
-  </si>
-  <si>
-    <t>岗位负责人</t>
-  </si>
-  <si>
-    <t>学生实习鉴定结果</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>毕业学校</t>
-  </si>
-  <si>
-    <t>是否提前入学（怎么处理？）</t>
-  </si>
-  <si>
-    <t>岗位负责人电话</t>
-  </si>
-  <si>
-    <t>是否对岗位满意</t>
-  </si>
-  <si>
-    <t>证书二</t>
-  </si>
-  <si>
-    <t>户口性质</t>
-  </si>
-  <si>
-    <t>第一次就业回访</t>
-  </si>
-  <si>
-    <t>带队教师</t>
-  </si>
-  <si>
-    <t>电子邮件</t>
-  </si>
-  <si>
-    <t>回访日期</t>
-  </si>
-  <si>
-    <t>带队教师电话</t>
-  </si>
-  <si>
-    <t>是否在岗</t>
-  </si>
-  <si>
-    <t>第二段实习</t>
-  </si>
-  <si>
-    <t>实习类别</t>
-  </si>
-  <si>
-    <t>学生就业工作情况</t>
-  </si>
-  <si>
-    <t>离职原因</t>
-  </si>
-  <si>
-    <t>是否需要二次就业</t>
-  </si>
-  <si>
-    <t>证书三</t>
-  </si>
-  <si>
-    <t>提供一个学籍记录的案例</t>
-  </si>
-  <si>
-    <t>二次就业分配时间</t>
-  </si>
-  <si>
-    <t>财务信息</t>
-  </si>
-  <si>
-    <t>学杂费收支信息</t>
-  </si>
-  <si>
-    <t>学生退费信息</t>
-  </si>
-  <si>
-    <t>学生欠费信息</t>
-  </si>
-  <si>
-    <t>学生基本信息</t>
-  </si>
-  <si>
-    <t>第二次就业回访</t>
-  </si>
-  <si>
-    <t>退费时间</t>
-  </si>
-  <si>
-    <t>第一学年欠费费信息</t>
-  </si>
-  <si>
-    <t>退费学年</t>
-  </si>
-  <si>
-    <t>欠费学年度</t>
-  </si>
-  <si>
-    <t>退费金额</t>
-  </si>
-  <si>
-    <t>欠培训费</t>
-  </si>
-  <si>
-    <t>退培训费</t>
-  </si>
-  <si>
-    <t>欠服装费</t>
-  </si>
-  <si>
-    <t>退服装费</t>
-  </si>
-  <si>
-    <t>欠教材费</t>
-  </si>
-  <si>
-    <t>退教材费</t>
-  </si>
-  <si>
-    <t>欠住宿费</t>
-  </si>
-  <si>
-    <t>退住宿费</t>
-  </si>
-  <si>
-    <t>欠被褥费</t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>退被褥费</t>
-  </si>
-  <si>
-    <t>欠保险费</t>
-  </si>
-  <si>
-    <t>退保险费</t>
-  </si>
-  <si>
-    <t>欠公物押金</t>
-  </si>
-  <si>
-    <t>退公物押金</t>
-  </si>
-  <si>
-    <t>欠证书费</t>
-  </si>
-  <si>
-    <t>第一学年学杂费信息</t>
-  </si>
-  <si>
-    <t>退证书费</t>
-  </si>
-  <si>
-    <t>欠国防教育费</t>
-  </si>
-  <si>
-    <t>缴费日期(最后一次缴费日期）</t>
-  </si>
-  <si>
-    <t>退国防教育费</t>
-  </si>
-  <si>
-    <t>欠体检费</t>
-  </si>
-  <si>
-    <t>缴费学年</t>
-  </si>
-  <si>
-    <t>退体检费</t>
-  </si>
-  <si>
-    <t>欠费合计</t>
-  </si>
-  <si>
-    <t>实缴培训费</t>
-  </si>
-  <si>
-    <t>退费账户</t>
-  </si>
-  <si>
-    <t>实缴服装费</t>
-  </si>
-  <si>
-    <t>退费账号</t>
-  </si>
-  <si>
-    <t>实缴教材费</t>
-  </si>
-  <si>
-    <t>退费开户行</t>
-  </si>
-  <si>
-    <t>实缴住宿费</t>
-  </si>
-  <si>
-    <t>实缴被褥费</t>
-  </si>
-  <si>
-    <t>实缴保险费</t>
-  </si>
-  <si>
-    <t>实缴公物押金</t>
-  </si>
-  <si>
-    <t>实缴证书费</t>
-  </si>
-  <si>
-    <t>实缴国防教育费</t>
-  </si>
-  <si>
-    <t>实缴体检费</t>
-  </si>
-  <si>
-    <t>减免类型(非贫困生、贫困生)</t>
-  </si>
-  <si>
-    <t>减免金额</t>
-  </si>
-  <si>
-    <t>减免备注</t>
-  </si>
-  <si>
-    <t>返费时间</t>
-  </si>
-  <si>
-    <t>返费和退费的关系
-，返费和实缴应缴的关系，为什么要在记录里添加返费</t>
-  </si>
-  <si>
-    <t>应返费总额</t>
-  </si>
-  <si>
-    <t>返费金额</t>
-  </si>
-  <si>
-    <t>返费账户</t>
-  </si>
-  <si>
-    <t>返费账号</t>
-  </si>
-  <si>
-    <t>返费开户行</t>
-  </si>
-  <si>
-    <t>应缴培训费</t>
-  </si>
-  <si>
-    <t>应缴服装费</t>
-  </si>
-  <si>
-    <t>应缴教材费</t>
-  </si>
-  <si>
-    <t>应缴住宿费</t>
-  </si>
-  <si>
-    <t>应缴被褥费</t>
-  </si>
-  <si>
-    <t>应缴保险费</t>
-  </si>
-  <si>
-    <t>应缴公物押金</t>
-  </si>
-  <si>
-    <t>应缴证书费</t>
-  </si>
-  <si>
-    <t>应缴国防教育费</t>
-  </si>
-  <si>
-    <t>应缴体检费</t>
-  </si>
-  <si>
-    <t>是否欠费</t>
-  </si>
-  <si>
-    <t>第二学年学杂费信息</t>
-  </si>
-  <si>
-    <t>缴费日期</t>
-  </si>
-  <si>
-    <t>必考证书（多选）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学籍字段表格多于之前给的（多选）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>实缴、应缴、减免之间的关系</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠费：我们提供一个是否欠费的字段，是否合适。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>班主任所属部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型</t>
-  </si>
-  <si>
-    <t>户口所在地-省</t>
-  </si>
-  <si>
-    <t>户口所在地-市</t>
-  </si>
-  <si>
-    <t>户口所在地-县</t>
-  </si>
-  <si>
-    <t>欠费变色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>应缴 = 实缴+减免</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多证书</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -894,12 +896,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +931,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1215,7 +1217,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1294,8 +1296,8 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
+      <c r="B7" s="39" t="s">
+        <v>173</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1306,8 +1308,8 @@
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
+      <c r="B8" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1321,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -1341,8 +1343,8 @@
       <c r="H9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>161</v>
+      <c r="I9" s="34" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1350,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
@@ -1370,11 +1372,11 @@
       <c r="H10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>172</v>
+      <c r="I10" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1382,12 +1384,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1396,8 +1398,8 @@
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>160</v>
+      <c r="G11" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>12</v>
@@ -1411,12 +1413,12 @@
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -1431,11 +1433,11 @@
       <c r="H12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>173</v>
+      <c r="I12" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1448,7 +1450,7 @@
       <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -1463,8 +1465,8 @@
       <c r="H13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>163</v>
+      <c r="I13" s="33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,7 +1479,7 @@
       <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1492,8 +1494,8 @@
       <c r="H14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>164</v>
+      <c r="I14" s="33" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1504,117 +1506,117 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>170</v>
+      <c r="I15" s="43" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="F16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="G16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>171</v>
+      <c r="I16" s="43" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="G17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="18"/>
       <c r="E18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="19"/>
       <c r="E19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>9</v>
@@ -1622,38 +1624,38 @@
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>165</v>
+        <v>66</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>34</v>
@@ -1662,86 +1664,86 @@
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
-        <v>167</v>
+      <c r="A24" s="40" t="s">
+        <v>165</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
-        <v>168</v>
+      <c r="A25" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>169</v>
+      <c r="A26" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -1750,13 +1752,13 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -1764,10 +1766,10 @@
       <c r="A28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>34</v>
@@ -1782,10 +1784,10 @@
         <v>32</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -1795,13 +1797,13 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -1811,13 +1813,13 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -1827,69 +1829,69 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="47" t="s">
-        <v>174</v>
+        <v>63</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" s="45" t="s">
+        <v>172</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="34"/>
+        <v>91</v>
+      </c>
+      <c r="F35" s="47"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
@@ -1899,15 +1901,15 @@
         <v>12</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="34"/>
+        <v>75</v>
+      </c>
+      <c r="F36" s="47"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1917,15 +1919,15 @@
         <v>21</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="34"/>
+        <v>77</v>
+      </c>
+      <c r="F37" s="47"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -1935,13 +1937,13 @@
         <v>24</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1953,13 +1955,13 @@
         <v>35</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1968,16 +1970,16 @@
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1986,16 +1988,16 @@
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2004,16 +2006,16 @@
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2022,13 +2024,13 @@
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>32</v>
@@ -2043,13 +2045,13 @@
         <v>23</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2061,13 +2063,13 @@
         <v>17</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2076,16 +2078,16 @@
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="E46" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2094,16 +2096,16 @@
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="E47" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2112,16 +2114,16 @@
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2130,13 +2132,13 @@
     <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="33"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2144,13 +2146,13 @@
     <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="34"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2158,13 +2160,13 @@
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="34"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2172,11 +2174,11 @@
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="34"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2184,7 +2186,7 @@
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2196,7 +2198,7 @@
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2208,7 +2210,7 @@
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2220,7 +2222,7 @@
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2232,7 +2234,7 @@
     <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2244,7 +2246,7 @@
     <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2255,8 +2257,8 @@
     </row>
     <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="37" t="s">
-        <v>137</v>
+      <c r="B59" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2267,8 +2269,8 @@
     </row>
     <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="37" t="s">
-        <v>138</v>
+      <c r="B60" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2279,8 +2281,8 @@
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="37" t="s">
-        <v>139</v>
+      <c r="B61" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2292,10 +2294,10 @@
     <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2306,7 +2308,7 @@
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="1"/>
@@ -2318,7 +2320,7 @@
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="1"/>
@@ -2330,7 +2332,7 @@
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="1"/>
@@ -2342,7 +2344,7 @@
     <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="1"/>
@@ -2354,7 +2356,7 @@
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2366,7 +2368,7 @@
     <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2378,7 +2380,7 @@
     <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2390,7 +2392,7 @@
     <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2402,7 +2404,7 @@
     <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2414,7 +2416,7 @@
     <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2426,7 +2428,7 @@
     <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2438,7 +2440,7 @@
     <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2450,7 +2452,7 @@
     <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2462,7 +2464,7 @@
     <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2474,7 +2476,7 @@
     <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2486,7 +2488,7 @@
     <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2498,7 +2500,7 @@
     <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2510,7 +2512,7 @@
     <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2522,7 +2524,7 @@
     <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2534,7 +2536,7 @@
     <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2546,7 +2548,7 @@
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2558,7 +2560,7 @@
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2570,7 +2572,7 @@
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2582,7 +2584,7 @@
     <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2594,7 +2596,7 @@
     <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2606,7 +2608,7 @@
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2618,7 +2620,7 @@
     <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2630,7 +2632,7 @@
     <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="32"/>
@@ -2642,7 +2644,7 @@
     <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="32"/>
       <c r="B91" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
@@ -2654,7 +2656,7 @@
     <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="32"/>
       <c r="B92" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="1"/>
@@ -2666,7 +2668,7 @@
     <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2678,7 +2680,7 @@
     <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2690,7 +2692,7 @@
     <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2702,7 +2704,7 @@
     <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2714,7 +2716,7 @@
     <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2726,7 +2728,7 @@
     <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2738,7 +2740,7 @@
     <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2750,7 +2752,7 @@
     <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2762,7 +2764,7 @@
     <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2774,7 +2776,7 @@
     <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2786,7 +2788,7 @@
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2798,7 +2800,7 @@
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2810,7 +2812,7 @@
     <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2822,7 +2824,7 @@
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2834,7 +2836,7 @@
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2846,7 +2848,7 @@
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2858,7 +2860,7 @@
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2870,7 +2872,7 @@
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2882,7 +2884,7 @@
     <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" s="1"/>

--- a/pengxiang-edu-vue/src/docs/字段核对.xlsx
+++ b/pengxiang-edu-vue/src/docs/字段核对.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2022_ChenEnlai\duYan\lab_Project\pengxiang\pengxiang-edu-vue\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9532DB79-8B7E-43C2-87A1-D097FC181DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B874E15-BD91-4472-B6BA-A2101438971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="190">
   <si>
     <t>学生基础信息</t>
   </si>
@@ -43,9 +43,6 @@
     <t>学生考证信息</t>
   </si>
   <si>
-    <t>分班列表</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>籍贯</t>
   </si>
   <si>
-    <t>招生老师</t>
-  </si>
-  <si>
     <t>就业岗位</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>政治面貌</t>
   </si>
   <si>
-    <t>招生老师部门</t>
-  </si>
-  <si>
     <t>结束日期</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>招生季（春秋）</t>
   </si>
   <si>
-    <t>招生老师电话</t>
-  </si>
-  <si>
     <t>试用期薪酬</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
     <t>是否提前入学（怎么处理？）</t>
   </si>
   <si>
-    <t>岗位负责人电话</t>
-  </si>
-  <si>
     <t>是否对岗位满意</t>
   </si>
   <si>
@@ -278,9 +263,6 @@
   </si>
   <si>
     <t>二次就业分配时间</t>
-  </si>
-  <si>
-    <t>财务信息</t>
   </si>
   <si>
     <t>学杂费收支信息</t>
@@ -522,15 +504,6 @@
   </si>
   <si>
     <t>证件类型</t>
-  </si>
-  <si>
-    <t>户口所在地-省</t>
-  </si>
-  <si>
-    <t>户口所在地-市</t>
-  </si>
-  <si>
-    <t>户口所在地-县</t>
   </si>
   <si>
     <t>欠费变色</t>
@@ -597,6 +570,94 @@
       <t>(在册在籍、在册不在籍、在籍退学、非在册非在籍、提前入学）</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>考证状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu_certificate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>离校日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>就业单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>就业岗位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用期限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用期薪酬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>转正薪酬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位负责人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位负责人电话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否对岗位满意</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生就业工作情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次就业分配时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_base_info</t>
+  </si>
+  <si>
+    <t>stu_employ</t>
+  </si>
+  <si>
+    <t>stu_employ_visit</t>
+  </si>
+  <si>
+    <t>stu_practice</t>
+  </si>
+  <si>
+    <t>招生老师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招生老师部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招生老师电话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_status_change_info</t>
+  </si>
+  <si>
+    <t>fee_arrearage</t>
+  </si>
+  <si>
+    <t>fee_return</t>
+  </si>
+  <si>
+    <t>fee_school_sundry</t>
   </si>
 </sst>
 </file>
@@ -712,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -794,11 +855,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,15 +922,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -865,12 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -933,10 +992,51 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,17 +1316,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1236,9 +1333,6 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1248,9 +1342,6 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1260,9 +1351,6 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1272,9 +1360,6 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1284,9 +1369,6 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1296,34 +1378,45 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="39" t="s">
-        <v>173</v>
-      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="44" t="s">
+        <v>180</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+    <row r="8" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>50</v>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -1340,19 +1433,17 @@
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>159</v>
+      <c r="H9" s="7"/>
+      <c r="I9" s="29" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
@@ -1369,581 +1460,587 @@
       <c r="G10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>170</v>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>171</v>
+      <c r="H12" s="8"/>
+      <c r="I12" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="E13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>161</v>
+      <c r="H13" s="8"/>
+      <c r="I13" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="C14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>162</v>
+      <c r="H14" s="8"/>
+      <c r="I14" s="28" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>168</v>
+      <c r="H15" s="8"/>
+      <c r="I15" s="38" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>169</v>
+      <c r="G16" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="38" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="G17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="E18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="E19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="37" t="s">
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="G21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="F22" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="2" t="s">
+      <c r="G22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="G24" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="13" t="s">
-        <v>80</v>
+      <c r="A25" s="36"/>
+      <c r="B25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="50" t="s">
+        <v>177</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
-        <v>167</v>
+      <c r="A26" s="35"/>
+      <c r="B26" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
+      <c r="B27" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
+      <c r="B28" s="34" t="s">
+        <v>157</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="13" t="s">
-        <v>85</v>
+      <c r="E28" s="41" t="s">
+        <v>178</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="32"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="32"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>187</v>
+      </c>
       <c r="E33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="45" t="s">
-        <v>172</v>
+        <v>59</v>
+      </c>
+      <c r="F34" s="47"/>
+      <c r="G34" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>90</v>
+      <c r="B35" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="47"/>
+        <v>85</v>
+      </c>
+      <c r="F35" s="48"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="47"/>
+        <v>70</v>
+      </c>
+      <c r="F36" s="48"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="F37" s="48"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1952,16 +2049,16 @@
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1970,16 +2067,16 @@
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1988,16 +2085,16 @@
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2006,34 +2103,34 @@
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2042,16 +2139,16 @@
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2060,16 +2157,16 @@
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2077,17 +2174,17 @@
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="26" t="s">
-        <v>113</v>
+      <c r="B46" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2096,16 +2193,16 @@
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2114,16 +2211,16 @@
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2132,13 +2229,13 @@
     <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="46"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2146,13 +2243,13 @@
     <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="47"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2160,13 +2257,13 @@
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="47"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2174,11 +2271,11 @@
     <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="47"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2186,7 +2283,7 @@
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2198,7 +2295,7 @@
     <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2210,7 +2307,7 @@
     <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2222,7 +2319,7 @@
     <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2234,7 +2331,7 @@
     <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2246,7 +2343,7 @@
     <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2257,8 +2354,8 @@
     </row>
     <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="35" t="s">
-        <v>135</v>
+      <c r="B59" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2269,8 +2366,8 @@
     </row>
     <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="35" t="s">
-        <v>136</v>
+      <c r="B60" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2281,8 +2378,8 @@
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="35" t="s">
-        <v>137</v>
+      <c r="B61" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2293,11 +2390,11 @@
     </row>
     <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>139</v>
+      <c r="B62" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2307,10 +2404,10 @@
     </row>
     <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="30"/>
+      <c r="B63" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="25"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2319,10 +2416,10 @@
     </row>
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="30"/>
+      <c r="B64" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="25"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2332,9 +2429,9 @@
     <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="30"/>
+        <v>136</v>
+      </c>
+      <c r="C65" s="25"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2344,9 +2441,9 @@
     <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="30"/>
+        <v>137</v>
+      </c>
+      <c r="C66" s="25"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2356,7 +2453,7 @@
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2368,7 +2465,7 @@
     <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2380,7 +2477,7 @@
     <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2392,7 +2489,7 @@
     <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2404,7 +2501,7 @@
     <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2416,7 +2513,7 @@
     <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2428,7 +2525,7 @@
     <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2440,7 +2537,7 @@
     <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2452,7 +2549,7 @@
     <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2464,7 +2561,7 @@
     <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2476,7 +2573,7 @@
     <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2487,8 +2584,8 @@
     </row>
     <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="31" t="s">
-        <v>155</v>
+      <c r="B78" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2499,8 +2596,8 @@
     </row>
     <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="26" t="s">
-        <v>156</v>
+      <c r="B79" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2512,7 +2609,7 @@
     <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2524,7 +2621,7 @@
     <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2536,7 +2633,7 @@
     <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2548,7 +2645,7 @@
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2560,7 +2657,7 @@
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2572,7 +2669,7 @@
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2584,7 +2681,7 @@
     <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2596,7 +2693,7 @@
     <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2608,7 +2705,7 @@
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2620,7 +2717,7 @@
     <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2632,33 +2729,33 @@
     <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="32"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="32"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
+        <v>128</v>
+      </c>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="32"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="32"/>
+        <v>129</v>
+      </c>
+      <c r="C92" s="27"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2668,7 +2765,7 @@
     <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2680,7 +2777,7 @@
     <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2691,8 +2788,8 @@
     </row>
     <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="28" t="s">
-        <v>138</v>
+      <c r="B95" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2703,32 +2800,32 @@
     </row>
     <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="28" t="s">
-        <v>140</v>
+      <c r="B96" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="32"/>
+      <c r="G96" s="27"/>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="28" t="s">
-        <v>141</v>
+      <c r="B97" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="32"/>
+      <c r="G97" s="27"/>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2740,7 +2837,7 @@
     <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2752,7 +2849,7 @@
     <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2764,7 +2861,7 @@
     <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2776,31 +2873,31 @@
     <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="32"/>
+      <c r="H102" s="27"/>
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="32"/>
+      <c r="H103" s="27"/>
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2812,7 +2909,7 @@
     <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2824,7 +2921,7 @@
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2836,7 +2933,7 @@
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2848,7 +2945,7 @@
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2860,7 +2957,7 @@
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2872,7 +2969,7 @@
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2883,8 +2980,8 @@
     </row>
     <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="31" t="s">
-        <v>155</v>
+      <c r="B111" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" s="1"/>
